--- a/biology/Botanique/Asplenium_foreziense/Asplenium_foreziense.xlsx
+++ b/biology/Botanique/Asplenium_foreziense/Asplenium_foreziense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asplenium foreziense est une espèce de fougères de la famille des Aspleniaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette petite fougère mesure de 15 à 30 cm de hauteur.
 Les spores apparaissent de juillet à septembre.
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fougère originaire d'Auvergne s'est répandue jusqu'en Afrique du Nord et à l'est en Alsace et en Rhénanie. Elle a été introduite au XIXe siècle en Belgique et en Hollande.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit sur les roches siliceuses et les amas de pierre.
 </t>
